--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s0_P3_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s0_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>864.3883010214249</v>
+        <v>830.7707463255554</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.25830102142056</v>
+        <v>24.77074632555534</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.20198677844447</v>
+        <v>5.18700298823897</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.20198677844447</v>
+        <v>5.18700298823897</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>408.0700000000044</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>413.0600000000001</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,12 +617,23 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -678,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -689,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -700,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -711,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -722,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -733,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -813,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -824,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -846,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -896,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.35124120223184</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -904,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.09486359553444</v>
+        <v>16.1136520999787</v>
       </c>
     </row>
     <row r="5">
@@ -912,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.187002988238969</v>
+        <v>24.81299701176106</v>
       </c>
     </row>
     <row r="6">
@@ -920,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.23610946176163</v>
+        <v>5.427798817200209</v>
       </c>
     </row>
     <row r="7">
@@ -928,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.24751652694444</v>
+        <v>8.577917217426545</v>
       </c>
     </row>
     <row r="8">
@@ -944,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -990,13 +1001,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1004,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1018,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1032,15 +1043,29 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1143,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>136.605</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8">
@@ -1154,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>147.39</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
@@ -1165,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>149.995</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -1176,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>145.9</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11">
@@ -1187,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>146.71</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
@@ -1198,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>210.05</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -1209,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>201.3050000000008</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
@@ -1220,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>209.9450000000008</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
@@ -1231,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>210.3250000000008</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -1242,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>207.4900000000008</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
@@ -1253,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>72.47999999999935</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18">
@@ -1264,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>77.40999999999934</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19">
@@ -1275,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>81.15000000000001</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20">
@@ -1286,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>74.90999999999934</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
@@ -1297,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>75.71999999999935</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
@@ -1308,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>103.79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1319,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>91.44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1330,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1341,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>98.36499999999998</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1352,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>96.54000000000001</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -1363,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>213.8249999999998</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
@@ -1374,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>234.7349999999998</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -1385,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>241.4749999999998</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -1396,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>237.7599999999998</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1407,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>237.1249999999998</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
@@ -1418,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>210.05</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33">
@@ -1429,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>201.3050000000008</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34">
@@ -1440,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>209.9450000000008</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35">
@@ -1451,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>210.3250000000008</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36">
@@ -1462,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>207.4900000000008</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37">
@@ -1473,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>213.8249999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1484,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>234.7349999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1495,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>241.4749999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1506,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>237.7599999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1517,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>237.1249999999998</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>10.05</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -1575,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1.305000000000806</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -1586,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9.94500000000081</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -1597,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.3250000000008</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -1608,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.490000000000812</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -1619,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>13.8249999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1630,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>34.73499999999981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1641,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>41.4749999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1652,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>37.75999999999976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1663,7 +1688,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>37.1249999999998</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1710,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1721,7 +1746,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1732,7 +1757,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1743,7 +1768,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1754,7 +1779,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1765,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1776,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1787,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1798,7 +1823,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1809,7 +1834,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1820,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1831,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1842,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1853,7 +1878,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1864,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1875,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4.725</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -1886,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>5.48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1897,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4.425</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -1908,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -1919,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>3.95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -1930,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -1941,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -1952,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -1963,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1974,7 +1999,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1988,7 +2013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2015,7 +2040,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2026,7 +2051,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2037,7 +2062,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2048,7 +2073,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2059,67 +2084,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
